--- a/data/trans_camb/P7C_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P7C_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +704,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,94</t>
+          <t>-2,86</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-3,31</t>
+          <t>-3,67</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-6,17</t>
+          <t>-6,18</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>28,0</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-2,89</t>
+          <t>7,8</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,82</t>
+          <t>3,15</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-1,09</t>
+          <t>-2,98</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>11,49</t>
+          <t>-1,41</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-2,9</t>
+          <t>-1,56</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-2,05</t>
+          <t>3,35</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>-3,59</t>
+          <t>3,08</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>19,8</t>
+          <t>7,4</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-2,91</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-2,52</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-3,82</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>1,73</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>5,41</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>5,15</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,04; 1,92</t>
+          <t>-11,47; 1,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,47; 1,57</t>
+          <t>-11,48; 0,86</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-14,26; -2,51</t>
+          <t>-13,56; -2,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13,11; 44,74</t>
+          <t>-7,71; 6,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,45; 2,07</t>
+          <t>-0,16; 16,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 5,25</t>
+          <t>-5,77; 12,61</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-6,63; 4,89</t>
+          <t>-8,09; 2,01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,15; 26,77</t>
+          <t>-6,81; 3,73</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 0,67</t>
+          <t>-7,12; 3,52</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-6,67; 2,16</t>
+          <t>-2,64; 10,0</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>-8,38; 0,17</t>
+          <t>-5,46; 11,53</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>9,42; 32,24</t>
+          <t>-0,26; 14,89</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-7,91; 0,78</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-7,66; 1,21</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-8,07; -0,52</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>-3,29; 6,61</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>-0,74; 11,62</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>-0,94; 11,85</t>
         </is>
       </c>
     </row>
@@ -792,12 +900,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-47,62%</t>
+          <t>-46,27%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-53,67%</t>
+          <t>-59,43%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -807,47 +915,77 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>453,54%</t>
+          <t>-0,16%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-36,91%</t>
+          <t>126,43%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-10,52%</t>
+          <t>29,16%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-13,95%</t>
+          <t>-38,14%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>146,8%</t>
+          <t>-18,07%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-41,75%</t>
+          <t>-19,94%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-29,47%</t>
+          <t>42,78%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>-51,62%</t>
+          <t>27,55%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>284,64%</t>
+          <t>107,95%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-41,79%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-36,24%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-54,9%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>24,79%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>62,34%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>57,5%</t>
         </is>
       </c>
     </row>
@@ -860,12 +998,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 87,86</t>
+          <t>-100,0; 79,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 98,93</t>
+          <t>-100,0; 61,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -875,47 +1013,77 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>65,4; 1263,95</t>
+          <t>-81,89; 208,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-76,88; 53,14</t>
+          <t>-11,1; 594,51</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-59,54; 104,06</t>
+          <t>-41,99; 192,34</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-62,99; 98,88</t>
+          <t>-77,13; 46,73</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,3; 476,89</t>
+          <t>-64,71; 88,42</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-74,91; 18,64</t>
+          <t>-67,95; 74,27</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-66,86; 49,32</t>
+          <t>-29,58; 188,05</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>-79,59; 7,27</t>
+          <t>-35,31; 169,26</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>95,19; 641,39</t>
+          <t>-6,64; 375,94</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-74,82; 22,96</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-73,66; 29,8</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-81,05; -2,18</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>-39,76; 128,53</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>-8,04; 172,18</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>-9,51; 194,98</t>
         </is>
       </c>
     </row>
@@ -932,62 +1100,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,16</t>
+          <t>2,97</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,79</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>36,38</t>
+          <t>15,84</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>-28,32</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,88</t>
+          <t>-6,78</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,56</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>24,9</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,17</t>
+          <t>-2,07</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>-1,91</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>31,6</t>
+          <t>8,08</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1,59</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>0,71</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>-0,45</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>7,32</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>-14,49</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>0,39</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,53; 15,88</t>
+          <t>-8,99; 15,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,08; 12,58</t>
+          <t>-10,94; 12,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,14; 13,86</t>
+          <t>-10,07; 14,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,97; 55,46</t>
+          <t>2,11; 34,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,62; 12,13</t>
+          <t>-45,47; -15,4</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,55; 11,23</t>
+          <t>-16,47; 4,48</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-11,64; 7,77</t>
+          <t>-10,0; 10,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,67; 37,32</t>
+          <t>-10,07; 10,04</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 10,44</t>
+          <t>-11,9; 6,87</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 8,47</t>
+          <t>-12,42; 8,73</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>-7,8; 8,13</t>
+          <t>-10,2; 11,95</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>18,14; 41,9</t>
+          <t>-2,47; 18,93</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-6,57; 9,22</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-6,69; 8,23</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-8,63; 7,79</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>-1,54; 17,85</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>-26,69; -6,08</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>-7,51; 8,7</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>11,19%</t>
+          <t>10,54%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>128,95%</t>
+          <t>56,15%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>-64,27%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>-30,1%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-3,35%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>53,32%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5,85%</t>
+          <t>-4,44%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>-4,09%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>-0,04%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>85,24%</t>
+          <t>21,9%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>4,28%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>1,92%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>-1,22%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>19,74%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>-32,65%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>1,3%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-28,17; 68,19</t>
+          <t>-27,72; 65,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-30,33; 54,95</t>
+          <t>-32,04; 57,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-28,42; 64,4</t>
+          <t>-30,74; 62,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>26,88; 234,21</t>
+          <t>4,01; 157,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-17,27; 29,41</t>
+          <t>-80,31; -40,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-13,62; 26,59</t>
+          <t>-60,21; 23,73</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-23,1; 18,73</t>
+          <t>-19,38; 25,33</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>25,23; 89,27</t>
+          <t>-18,99; 23,97</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-15,31; 30,29</t>
+          <t>-22,5; 16,44</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-17,26; 25,8</t>
+          <t>-24,04; 20,85</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>-18,92; 24,38</t>
+          <t>-20,63; 30,86</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>46,24; 125,5</t>
+          <t>-6,3; 59,76</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-16,61; 28,01</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-16,42; 25,48</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-20,84; 23,52</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>-4,32; 51,58</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>-51,14; -14,54</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>-23,14; 35,23</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1496,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,45</t>
+          <t>2,22</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,52</t>
+          <t>-1,26</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>19,28</t>
+          <t>4,77</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,45</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>7,96</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>2,92</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>15,8</t>
+          <t>1,3</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>1,52</t>
+          <t>12,62</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>-9,61</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>17,45</t>
+          <t>2,07</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>1,43</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>1,71</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>-0,23</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>8,76</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>-5,34</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>5,18</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1594,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,51; 12,14</t>
+          <t>-10,44; 10,87</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,88; 12,87</t>
+          <t>-8,08; 11,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,19; 8,96</t>
+          <t>-11,05; 7,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,58; 30,26</t>
+          <t>-5,92; 15,14</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 8,97</t>
+          <t>-11,69; 9,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,53; 7,54</t>
+          <t>-1,55; 18,68</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,96; 7,31</t>
+          <t>-4,97; 10,23</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,78; 24,93</t>
+          <t>-5,69; 8,43</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-6,15; 7,92</t>
+          <t>-6,74; 8,18</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 7,43</t>
+          <t>3,85; 19,97</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 6,14</t>
+          <t>-18,24; -0,39</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>10,68; 25,15</t>
+          <t>-6,75; 10,88</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-4,97; 7,64</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-4,47; 7,42</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-6,2; 6,03</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>2,56; 15,74</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>-12,35; 1,66</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>-1,4; 12,5</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1692,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>-0,21%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>6,31%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-1,32%</t>
+          <t>-3,24%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>49,55%</t>
+          <t>12,27%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>-3,06%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>23,16%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>1,06%</t>
+          <t>8,76%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>47,38%</t>
+          <t>3,9%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>4,22%</t>
+          <t>37,84%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>-0,29%</t>
+          <t>-20,9%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>48,36%</t>
+          <t>6,04%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>3,97%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>4,73%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>-0,64%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>24,29%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>-11,9%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>15,09%</t>
         </is>
       </c>
     </row>
@@ -1412,62 +1790,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-26,82; 35,15</t>
+          <t>-24,64; 32,86</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-16,13; 37,32</t>
+          <t>-18,12; 33,68</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-22,93; 26,57</t>
+          <t>-24,87; 21,26</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>16,85; 89,77</t>
+          <t>-13,61; 45,53</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-16,42; 30,47</t>
+          <t>-23,73; 26,1</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-17,63; 25,28</t>
+          <t>-4,03; 63,35</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-18,07; 24,68</t>
+          <t>-12,66; 34,53</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>18,19; 82,46</t>
+          <t>-15,4; 28,12</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-16,22; 23,61</t>
+          <t>-17,81; 27,48</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>-11,23; 22,48</t>
+          <t>10,48; 67,09</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>-15,88; 18,8</t>
+          <t>-36,75; -0,23</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>26,79; 74,6</t>
+          <t>-17,6; 35,6</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-12,63; 22,98</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-11,87; 22,84</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-16,15; 18,5</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>6,76; 47,97</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>-25,97; 3,71</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>-4,03; 40,14</t>
         </is>
       </c>
     </row>
@@ -1484,62 +1892,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,62</t>
+          <t>-1,47</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>17,23</t>
+          <t>13,24</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,0</t>
+          <t>-1,82</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>7,2</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,54</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>9,1</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>15,32</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>-1,5</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>14,05</t>
+          <t>13,27</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-0,08</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>0,27</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>14,32</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>-1,67</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>10,08</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 3,66</t>
+          <t>-3,81; 3,73</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 4,42</t>
+          <t>-3,8; 5,32</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 1,66</t>
+          <t>-4,83; 1,81</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,47; 30,91</t>
+          <t>8,03; 19,57</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 3,02</t>
+          <t>-9,23; 5,47</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 3,42</t>
+          <t>-0,57; 14,51</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 4,6</t>
+          <t>-2,81; 3,06</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,37; 17,73</t>
+          <t>-2,29; 3,46</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 2,24</t>
+          <t>-1,5; 4,86</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 2,98</t>
+          <t>10,36; 20,93</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 2,15</t>
+          <t>-8,98; 5,26</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>7,37; 22,82</t>
+          <t>8,08; 19,05</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-2,51; 2,19</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-2,11; 2,85</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-2,08; 2,32</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>10,4; 18,14</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>-6,5; 3,3</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>5,39; 14,72</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-4,32%</t>
+          <t>-2,99%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-3,69%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-29,35%</t>
+          <t>-26,66%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>313,08%</t>
+          <t>240,68%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-0,06%</t>
+          <t>-9,72%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>10,73%</t>
+          <t>74,08%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>40,81%</t>
+          <t>-0,88%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>241,23%</t>
+          <t>11,81%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-2,39%</t>
+          <t>42,21%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>406,04%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>0,28%</t>
+          <t>-7,85%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>305,8%</t>
+          <t>306,78%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-1,8%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>5,86%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>2,5%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>311,68%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>-8,85%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>140,7%</t>
         </is>
       </c>
     </row>
@@ -1688,62 +2186,92 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-55,19; 97,8</t>
+          <t>-58,12; 106,73</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-55,46; 127,33</t>
+          <t>-54,92; 159,5</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-68,86; 51,4</t>
+          <t>-64,94; 50,82</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>89,89; 697,43</t>
+          <t>104,04; 595,33</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-59,6; 127,41</t>
+          <t>-41,42; 34,94</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-51,38; 138,21</t>
+          <t>-9,06; 238,09</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-28,37; 178,77</t>
+          <t>-55,31; 124,25</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>31,34; 675,88</t>
+          <t>-47,82; 129,82</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-41,84; 65,27</t>
+          <t>-32,35; 183,45</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>-39,84; 84,63</t>
+          <t>200,59; 885,13</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>-39,77; 62,63</t>
+          <t>-39,06; 33,06</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>123,95; 582,06</t>
+          <t>115,57; 748,48</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-44,33; 64,11</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-38,71; 83,46</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-37,54; 68,08</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>176,92; 516,7</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>-31,0; 20,43</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>51,49; 294,22</t>
         </is>
       </c>
     </row>
@@ -1760,62 +2288,92 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,56</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>47,02</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-0,47</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-2,48</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>41,52</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>-2,45</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
+          <t>-0,63</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>4,16</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>3,03</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>0,44</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
           <t>0,07</t>
         </is>
       </c>
-      <c r="M20" s="2" t="inlineStr">
-        <is>
-          <t>-1,51</t>
-        </is>
-      </c>
-      <c r="N20" s="2" t="inlineStr">
-        <is>
-          <t>44,12</t>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>-1,49</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>0,52</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>2,76</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>1,82</t>
         </is>
       </c>
     </row>
@@ -1828,62 +2386,92 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 3,9</t>
+          <t>-1,65; 4,07</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 3,4</t>
+          <t>-2,24; 3,38</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 1,73</t>
+          <t>-3,22; 1,76</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>20,12; 72,71</t>
+          <t>-1,36; 5,13</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 3,43</t>
+          <t>-3,0; 5,72</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 3,59</t>
+          <t>-4,25; 5,19</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 0,77</t>
+          <t>-3,68; 3,45</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>20,84; 62,74</t>
+          <t>-3,93; 3,52</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 2,78</t>
+          <t>-5,91; 0,51</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 2,47</t>
+          <t>-4,66; 2,9</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 0,47</t>
+          <t>-0,42; 8,8</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>28,0; 60,4</t>
+          <t>-1,26; 8,11</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-1,9; 3,16</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-2,26; 2,48</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-3,66; 0,38</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>-2,09; 3,25</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>-0,27; 6,16</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>-1,39; 4,84</t>
         </is>
       </c>
     </row>
@@ -1896,62 +2484,92 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>36,68%</t>
+          <t>39,45%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>24,36%</t>
+          <t>24,19%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-22,62%</t>
+          <t>-22,03%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>1887,27%</t>
+          <t>66,83%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-6,32%</t>
+          <t>31,51%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-10,44%</t>
+          <t>11,43%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-54,73%</t>
+          <t>-3,07%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>914,86%</t>
+          <t>-10,67%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>9,42%</t>
+          <t>-53,89%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>-13,94%</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>-43,16%</t>
+          <t>106,53%</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>1258,56%</t>
+          <t>60,26%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>12,49%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>1,89%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>-42,4%</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>14,91%</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>68,63%</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>36,6%</t>
         </is>
       </c>
     </row>
@@ -1964,62 +2582,92 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-64,47; 327,77</t>
+          <t>-54,92; 344,68</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-60,74; 308,89</t>
+          <t>-65,03; 322,55</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-80,26; 150,55</t>
+          <t>-79,27; 211,04</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>531,98; 5005,21</t>
+          <t>-46,51; 472,04</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-65,42; 130,43</t>
+          <t>-56,81; 245,11</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-67,89; 156,62</t>
+          <t>-60,59; 220,01</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-87,63; 45,85</t>
+          <t>-61,62; 121,19</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>322,8; 2024,15</t>
+          <t>-66,0; 138,61</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-42,54; 121,17</t>
+          <t>-88,01; 39,95</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>-49,37; 102,95</t>
+          <t>-71,37; 103,22</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>-75,24; 29,87</t>
+          <t>-19,64; 486,29</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>642,0; 2427,15</t>
+          <t>-23,45; 269,19</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-41,52; 120,08</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-47,54; 110,63</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-76,57; 22,41</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>-43,34; 139,92</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>-6,82; 223,4</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>-22,66; 144,06</t>
         </is>
       </c>
     </row>
@@ -2036,62 +2684,92 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1,79</t>
+          <t>1,73</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>2,01</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-1,98</t>
+          <t>-1,94</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>53,72</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>1,68</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>1,66</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>27,33</t>
+          <t>1,63</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>1,58</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>1,83</t>
+          <t>4,98</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>36,39</t>
+          <t>3,31</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>1,58</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>1,38</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>2,43</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>2,56</t>
         </is>
       </c>
     </row>
@@ -2104,62 +2782,92 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 13,09</t>
+          <t>-4,54; 11,26</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 14,62</t>
+          <t>-5,23; 9,01</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-11,82; 1,22</t>
+          <t>-9,91; 1,29</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>9,44; 86,85</t>
+          <t>-8,94; 2,91</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 4,02</t>
+          <t>-2,58; 6,26</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 4,94</t>
+          <t>-2,27; 5,74</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 4,39</t>
+          <t>-0,19; 4,91</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>5,96; 69,71</t>
+          <t>-0,28; 4,63</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 6,42</t>
+          <t>-0,28; 4,14</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 7,59</t>
+          <t>0,5; 16,02</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 1,96</t>
+          <t>-12,74; 4,7</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>13,95; 63,92</t>
+          <t>-0,21; 7,85</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>-1,69; 6,11</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-1,84; 5,01</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-3,33; 2,04</t>
+        </is>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>-0,73; 8,81</t>
+        </is>
+      </c>
+      <c r="S25" s="2" t="inlineStr">
+        <is>
+          <t>-5,69; 4,31</t>
+        </is>
+      </c>
+      <c r="T25" s="2" t="inlineStr">
+        <is>
+          <t>-0,31; 5,58</t>
         </is>
       </c>
     </row>
@@ -2172,62 +2880,92 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>53,5%</t>
+          <t>51,89%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>60,01%</t>
+          <t>30,51%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-59,14%</t>
+          <t>-58,16%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>1606,51%</t>
+          <t>-27,8%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>206,79%</t>
+          <t>75,21%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>258,28%</t>
+          <t>55,95%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>254,66%</t>
+          <t>221,74%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>4194,34%</t>
+          <t>250,06%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>86,2%</t>
+          <t>242,81%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>101,71%</t>
+          <t>764,25%</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>5,47%</t>
+          <t>-9,62%</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>2017,46%</t>
+          <t>185,42%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>87,87%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>76,52%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>3,9%</t>
+        </is>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>135,02%</t>
+        </is>
+      </c>
+      <c r="S26" s="2" t="inlineStr">
+        <is>
+          <t>11,83%</t>
+        </is>
+      </c>
+      <c r="T26" s="2" t="inlineStr">
+        <is>
+          <t>117,83%</t>
         </is>
       </c>
     </row>
@@ -2240,7 +2978,7 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 1450,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
@@ -2260,42 +2998,72 @@
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
+          <t>-77,77; 763,77</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>-74,95; 544,25</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H27" s="2" t="inlineStr">
+      <c r="J27" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; —</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
+      <c r="K27" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-76,29; 722,27</t>
-        </is>
-      </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>-71,0; 798,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>-85,61; 298,54</t>
+          <t>-89,17; 324,93</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
         <is>
-          <t>205,08; 7729,91</t>
+          <t>-40,61; 1187,23</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>-83,69; 815,2</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-77,28; 787,2</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-91,16; 351,13</t>
+        </is>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>-75,97; 1123,3</t>
+        </is>
+      </c>
+      <c r="S27" s="2" t="inlineStr">
+        <is>
+          <t>-68,46; 263,39</t>
+        </is>
+      </c>
+      <c r="T27" s="2" t="inlineStr">
+        <is>
+          <t>-18,29; 473,41</t>
         </is>
       </c>
     </row>
@@ -2312,62 +3080,92 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-1,05</t>
+          <t>-1,25</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>31,54</t>
+          <t>6,39</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>-3,65</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>2,68</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>27,75</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>6,43</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>-1,44</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>29,6</t>
+          <t>6,0</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>0,64</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>0,55</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>-0,53</t>
+        </is>
+      </c>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
+          <t>6,41</t>
+        </is>
+      </c>
+      <c r="S28" s="2" t="inlineStr">
+        <is>
+          <t>-2,55</t>
+        </is>
+      </c>
+      <c r="T28" s="2" t="inlineStr">
+        <is>
+          <t>4,34</t>
         </is>
       </c>
     </row>
@@ -2380,62 +3178,92 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 4,87</t>
+          <t>-3,06; 4,59</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 4,07</t>
+          <t>-3,38; 3,61</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 2,44</t>
+          <t>-4,91; 2,25</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>24,7; 37,92</t>
+          <t>2,09; 11,24</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 3,13</t>
+          <t>-9,09; 0,65</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 3,69</t>
+          <t>-0,89; 6,25</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 2,97</t>
+          <t>-1,9; 3,67</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>22,01; 33,39</t>
+          <t>-1,71; 3,51</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 2,85</t>
+          <t>-2,48; 2,71</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 2,87</t>
+          <t>3,3; 9,65</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 1,74</t>
+          <t>-5,36; 2,04</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>24,96; 33,67</t>
+          <t>2,66; 8,9</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>-1,8; 2,99</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>-1,53; 2,87</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>-2,65; 1,78</t>
+        </is>
+      </c>
+      <c r="R29" s="2" t="inlineStr">
+        <is>
+          <t>3,83; 9,28</t>
+        </is>
+      </c>
+      <c r="S29" s="2" t="inlineStr">
+        <is>
+          <t>-5,51; 0,37</t>
+        </is>
+      </c>
+      <c r="T29" s="2" t="inlineStr">
+        <is>
+          <t>1,76; 6,56</t>
         </is>
       </c>
     </row>
@@ -2448,62 +3276,92 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>5,26%</t>
+          <t>4,03%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>4,6%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-6,99%</t>
+          <t>-8,27%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>209,3%</t>
+          <t>42,4%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>-17,0%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>6,01%</t>
+          <t>17,71%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>4,28%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>177,72%</t>
+          <t>4,92%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>5,33%</t>
+          <t>41,19%</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>-2,37%</t>
+          <t>-6,53%</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>192,87%</t>
+          <t>41,05%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>4,16%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>3,6%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>-3,45%</t>
+        </is>
+      </c>
+      <c r="R30" s="2" t="inlineStr">
+        <is>
+          <t>41,77%</t>
+        </is>
+      </c>
+      <c r="S30" s="2" t="inlineStr">
+        <is>
+          <t>-11,71%</t>
+        </is>
+      </c>
+      <c r="T30" s="2" t="inlineStr">
+        <is>
+          <t>29,2%</t>
         </is>
       </c>
     </row>
@@ -2516,78 +3374,115 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-17,3; 36,66</t>
+          <t>-18,51; 33,38</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-16,41; 29,88</t>
+          <t>-19,94; 26,22</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-27,95; 18,62</t>
+          <t>-28,19; 18,08</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>149,92; 278,78</t>
+          <t>12,58; 81,82</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-12,72; 22,27</t>
+          <t>-36,0; 3,4</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-9,72; 25,6</t>
+          <t>-5,95; 45,81</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-14,99; 20,81</t>
+          <t>-11,42; 26,46</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>135,77; 228,61</t>
+          <t>-10,17; 24,69</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-10,93; 19,75</t>
+          <t>-14,4; 19,18</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>-8,11; 20,08</t>
+          <t>19,2; 67,95</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>-15,35; 12,16</t>
+          <t>-22,19; 10,37</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>156,74; 235,52</t>
+          <t>17,06; 68,34</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>-10,84; 20,98</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>-9,4; 20,39</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>-15,78; 12,36</t>
+        </is>
+      </c>
+      <c r="R31" s="2" t="inlineStr">
+        <is>
+          <t>22,78; 63,05</t>
+        </is>
+      </c>
+      <c r="S31" s="2" t="inlineStr">
+        <is>
+          <t>-23,59; 1,95</t>
+        </is>
+      </c>
+      <c r="T31" s="2" t="inlineStr">
+        <is>
+          <t>10,72; 47,88</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
